--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2140839.928090044</v>
+        <v>-2143113.94821748</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.01511738</v>
+        <v>7230781.015117381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.74709416981602</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>94.99550876732668</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0459034711861</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6032504631755</v>
       </c>
       <c r="I2" t="n">
-        <v>162.0217950910658</v>
+        <v>162.0217950910659</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794447</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>129.332081306821</v>
+        <v>217.5940585367451</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>22.42895674335619</v>
+        <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7408432413276</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.24376372694832</v>
+        <v>66.24376372694837</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.40598506653466</v>
+        <v>58.40598506653474</v>
       </c>
       <c r="S3" t="n">
         <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4542208317152</v>
       </c>
       <c r="U3" t="n">
         <v>225.8971409297816</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>26.84511463731797</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>38.87493731290346</v>
       </c>
       <c r="G4" t="n">
-        <v>88.68358815796792</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2147226037219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.95378551841861</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2882781300877</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>61.75326320686924</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>223.2017705496292</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>81.73692581035957</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.1808171872111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>48.72297500511117</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>88.18421182873905</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>73.18872674459033</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.7320995604218</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.4746605491551</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>176.4971474005437</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>148.79342379344</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>69.971260195989</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>262.5069830052799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>36.38253456427864</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>149.8387407808049</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G35" t="n">
         <v>363.9465890348609</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536695</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3794,7 +3794,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,19 +3977,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,13 +4037,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1784.818842410145</v>
+        <v>1750.424601792581</v>
       </c>
       <c r="C2" t="n">
-        <v>1784.818842410145</v>
+        <v>1381.46208485217</v>
       </c>
       <c r="D2" t="n">
-        <v>1426.553143803395</v>
+        <v>1023.196386245419</v>
       </c>
       <c r="E2" t="n">
-        <v>1040.76489120515</v>
+        <v>637.408133647175</v>
       </c>
       <c r="F2" t="n">
-        <v>629.7789864155426</v>
+        <v>541.4530742862389</v>
       </c>
       <c r="G2" t="n">
-        <v>211.5508010911121</v>
+        <v>541.4530742862389</v>
       </c>
       <c r="H2" t="n">
         <v>211.5508010911121</v>
       </c>
       <c r="I2" t="n">
-        <v>47.8924222112477</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="J2" t="n">
-        <v>141.6681220034136</v>
+        <v>141.6681220034138</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971218</v>
+        <v>402.9583913971219</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883424</v>
+        <v>779.3887029883422</v>
       </c>
       <c r="M2" t="n">
         <v>1214.846500462594</v>
       </c>
       <c r="N2" t="n">
-        <v>1642.718462811277</v>
+        <v>1642.718462811276</v>
       </c>
       <c r="O2" t="n">
-        <v>2001.558186006097</v>
+        <v>2001.558186006096</v>
       </c>
       <c r="P2" t="n">
-        <v>2270.145204794931</v>
+        <v>2270.145204794929</v>
       </c>
       <c r="Q2" t="n">
-        <v>2394.621110562385</v>
+        <v>2394.621110562382</v>
       </c>
       <c r="R2" t="n">
-        <v>2394.621110562385</v>
+        <v>2322.98523538264</v>
       </c>
       <c r="S2" t="n">
-        <v>2212.419126916163</v>
+        <v>2322.98523538264</v>
       </c>
       <c r="T2" t="n">
-        <v>2081.780660949677</v>
+        <v>2103.193257062695</v>
       </c>
       <c r="U2" t="n">
-        <v>1827.997725409959</v>
+        <v>2103.193257062695</v>
       </c>
       <c r="V2" t="n">
-        <v>1827.997725409959</v>
+        <v>2103.193257062695</v>
       </c>
       <c r="W2" t="n">
-        <v>1827.997725409959</v>
+        <v>1750.424601792581</v>
       </c>
       <c r="X2" t="n">
-        <v>1827.997725409959</v>
+        <v>1750.424601792581</v>
       </c>
       <c r="Y2" t="n">
-        <v>1827.997725409959</v>
+        <v>1750.424601792581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>873.4292112146532</v>
+        <v>882.0163341241374</v>
       </c>
       <c r="C3" t="n">
-        <v>698.9761819335262</v>
+        <v>707.5633048430104</v>
       </c>
       <c r="D3" t="n">
-        <v>550.0417722722749</v>
+        <v>558.6288951817592</v>
       </c>
       <c r="E3" t="n">
-        <v>390.8043172668194</v>
+        <v>399.3914401763037</v>
       </c>
       <c r="F3" t="n">
-        <v>244.2697592937044</v>
+        <v>252.8568822031887</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6142474317284</v>
+        <v>114.8053148647309</v>
       </c>
       <c r="H3" t="n">
         <v>114.8053148647309</v>
       </c>
       <c r="I3" t="n">
-        <v>47.8924222112477</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="J3" t="n">
-        <v>110.0512068966011</v>
+        <v>110.0512068966009</v>
       </c>
       <c r="K3" t="n">
-        <v>142.1232764428693</v>
+        <v>342.9113135442391</v>
       </c>
       <c r="L3" t="n">
-        <v>516.6368228394554</v>
+        <v>516.6368228394537</v>
       </c>
       <c r="M3" t="n">
-        <v>1005.655688461799</v>
+        <v>1005.655688461797</v>
       </c>
       <c r="N3" t="n">
-        <v>1523.324441723575</v>
+        <v>1523.324441723572</v>
       </c>
       <c r="O3" t="n">
-        <v>1930.474537907027</v>
+        <v>1930.474537907025</v>
       </c>
       <c r="P3" t="n">
-        <v>2240.245317403387</v>
+        <v>2240.245317403384</v>
       </c>
       <c r="Q3" t="n">
-        <v>2394.621110562385</v>
+        <v>2394.621110562382</v>
       </c>
       <c r="R3" t="n">
-        <v>2335.625166050734</v>
+        <v>2335.625166050731</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.824742397255</v>
+        <v>2174.824742397252</v>
       </c>
       <c r="T3" t="n">
-        <v>2174.824742397255</v>
+        <v>1975.376034486429</v>
       </c>
       <c r="U3" t="n">
-        <v>1946.645812165152</v>
+        <v>1747.197104254326</v>
       </c>
       <c r="V3" t="n">
-        <v>1711.49370393341</v>
+        <v>1720.080826842894</v>
       </c>
       <c r="W3" t="n">
-        <v>1457.256347205208</v>
+        <v>1465.843470114692</v>
       </c>
       <c r="X3" t="n">
-        <v>1249.404846999675</v>
+        <v>1257.991969909159</v>
       </c>
       <c r="Y3" t="n">
-        <v>1041.644548234721</v>
+        <v>1050.231671144205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2745542937627</v>
+        <v>404.0093121689249</v>
       </c>
       <c r="C4" t="n">
-        <v>296.2745542937627</v>
+        <v>235.073129241018</v>
       </c>
       <c r="D4" t="n">
-        <v>296.2745542937627</v>
+        <v>235.073129241018</v>
       </c>
       <c r="E4" t="n">
-        <v>296.2745542937627</v>
+        <v>87.16003565862488</v>
       </c>
       <c r="F4" t="n">
-        <v>296.2745542937627</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="G4" t="n">
-        <v>206.6951723160173</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="H4" t="n">
-        <v>47.8924222112477</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="I4" t="n">
-        <v>47.8924222112477</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="J4" t="n">
-        <v>47.8924222112477</v>
+        <v>47.89242221124764</v>
       </c>
       <c r="K4" t="n">
-        <v>90.690736420001</v>
+        <v>90.69073642000083</v>
       </c>
       <c r="L4" t="n">
-        <v>200.9842782663083</v>
+        <v>200.984278266308</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420746</v>
+        <v>327.6624769420741</v>
       </c>
       <c r="N4" t="n">
-        <v>456.7631676148803</v>
+        <v>456.7631676148796</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890155</v>
+        <v>559.9922554890147</v>
       </c>
       <c r="P4" t="n">
-        <v>624.801891312456</v>
+        <v>624.801891312455</v>
       </c>
       <c r="Q4" t="n">
-        <v>585.4546332130432</v>
+        <v>624.801891312455</v>
       </c>
       <c r="R4" t="n">
-        <v>585.4546332130432</v>
+        <v>624.801891312455</v>
       </c>
       <c r="S4" t="n">
-        <v>585.4546332130432</v>
+        <v>624.801891312455</v>
       </c>
       <c r="T4" t="n">
-        <v>585.4546332130432</v>
+        <v>624.801891312455</v>
       </c>
       <c r="U4" t="n">
-        <v>296.2745542937627</v>
+        <v>624.801891312455</v>
       </c>
       <c r="V4" t="n">
-        <v>296.2745542937627</v>
+        <v>624.801891312455</v>
       </c>
       <c r="W4" t="n">
-        <v>296.2745542937627</v>
+        <v>624.801891312455</v>
       </c>
       <c r="X4" t="n">
-        <v>296.2745542937627</v>
+        <v>624.801891312455</v>
       </c>
       <c r="Y4" t="n">
-        <v>296.2745542937627</v>
+        <v>404.0093121689249</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>836.2484886741015</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>450.4602360758573</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>443.5147353266538</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.090127584526</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1394.624369323446</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162494</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162494</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162494</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162494</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162494</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G7" t="n">
         <v>235.9284171545818</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162494</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1738.858660051663</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1738.858660051663</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1380.592961444913</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>994.8047088466685</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>583.818804057061</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.858660051663</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4893,19 +4893,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>639.0540227632637</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>639.0540227632637</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>411.0644718652463</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3944.053400686432</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4338.82776704361</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5066,13 +5066,13 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5109,7 +5109,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,28 +5118,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.6246893481002</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>727.6246893481002</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>727.6246893481002</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>909.27315417834</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>909.27315417834</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.27315417834</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,16 +5261,16 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867998</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,28 +5355,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>909.27315417834</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>681.2836032803226</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.8067350374723</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,22 +5513,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.806306216376</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.840519464784</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,28 +5592,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.1920047000663</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C19" t="n">
-        <v>211.1920047000663</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D19" t="n">
-        <v>211.1920047000663</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E19" t="n">
-        <v>211.1920047000663</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>211.1920047000663</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1385.724257814701</v>
+        <v>1274.780562389348</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.039769608814</v>
+        <v>1274.780562389348</v>
       </c>
       <c r="W19" t="n">
-        <v>841.6225995718535</v>
+        <v>985.3633923523876</v>
       </c>
       <c r="X19" t="n">
-        <v>613.6330486738361</v>
+        <v>757.3738414543702</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.840469530306</v>
+        <v>536.5812623108401</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5738,49 +5738,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5820,37 +5820,37 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.5145086342103</v>
+        <v>657.7758834233819</v>
       </c>
       <c r="C22" t="n">
-        <v>875.5145086342103</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="D22" t="n">
-        <v>725.3978692218745</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E22" t="n">
-        <v>577.4847756394814</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1385.724257814701</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1385.724257814701</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.30708777774</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="X22" t="n">
-        <v>1096.30708777774</v>
+        <v>1060.216927397152</v>
       </c>
       <c r="Y22" t="n">
-        <v>875.5145086342103</v>
+        <v>839.4243482536216</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,28 +6066,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104703</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898816</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1436.500409206614</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1208.510858308597</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>987.7182791650667</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>443.8820807562848</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1098.605412891584</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6294,10 +6294,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>278.5282561439494</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C28" t="n">
-        <v>278.5282561439494</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>278.5282561439494</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>278.5282561439494</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>278.5282561439494</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1715.160745447277</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1493.394130016804</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1204.291263142447</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>949.6067749365602</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>660.1896048995997</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y28" t="n">
-        <v>460.1767209741892</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6470,43 +6470,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686432</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998319</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1676.07730320813</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422545</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N32" t="n">
-        <v>2996.062531649191</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O32" t="n">
-        <v>3499.035002528528</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="35">
@@ -6938,19 +6938,19 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>3182.560655874483</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P35" t="n">
         <v>3684.98316084772</v>
@@ -7014,19 +7014,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415471</v>
@@ -7093,13 +7093,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7163,7 +7163,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7175,22 +7175,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P38" t="n">
-        <v>3518.923563871311</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
         <v>786.3326864982171</v>
@@ -7360,10 +7360,10 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7412,22 +7412,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>810.8729904741861</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1261.907203722595</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490542</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.98316084772</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603402</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,16 +7567,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
@@ -7634,10 +7634,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7649,28 +7649,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7679,16 +7679,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>61.64903792028546</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>168.0241462111651</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.53663776704403</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>258.6211785616945</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>219.3344627260167</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>67.5366377670432</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>132.9990175570131</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>161.0524397463283</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10121,19 +10121,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>133.2530576400267</v>
+        <v>292.568571519122</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>119.6706498956044</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>304.7351805999712</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>108.7354935515746</v>
+        <v>108.735493551573</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>277.2206841544134</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>167.7369666428374</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,25 +11060,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>40.02214132148697</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>108.7354935515729</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>71.87446026386806</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339.9867474936646</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>311.8805369743848</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>104.6133628050945</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2451061843206</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.200726907028675e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098626</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>73.24523590197884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.85255379167302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.55114770987308</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>109.7146908050692</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>18.45339730518788</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>75.44978782694224</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>24.01601533131111</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>129.6432736947496</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>39.930284550637</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57591.73087421739</v>
+        <v>57591.73087421737</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>59562.2680330475</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="F2" t="n">
-        <v>59562.26803304746</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="G2" t="n">
-        <v>59562.2680330475</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="H2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304746</v>
       </c>
       <c r="J2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="K2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="O2" t="n">
         <v>61578.13273982123</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982121</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501884.6814771937</v>
+        <v>501884.6814771929</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904306</v>
+        <v>83720.31263904386</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>156634.5614629961</v>
+        <v>156634.561462996</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848954</v>
+        <v>19465.25531848974</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950528</v>
+        <v>84741.61795950533</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587446</v>
+        <v>194330.6670587447</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>40547.88465321288</v>
+        <v>40547.88465321286</v>
       </c>
       <c r="M4" t="n">
         <v>62292.78252777379</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.7825277738</v>
+        <v>62292.78252777376</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777377</v>
+        <v>62292.78252777373</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777382</v>
+        <v>62292.78252777374</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76841.33769237217</v>
+        <v>76841.33769237211</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715464.955354093</v>
+        <v>-715597.8354162792</v>
       </c>
       <c r="C6" t="n">
-        <v>-306065.7638903628</v>
+        <v>-306065.7638903636</v>
       </c>
       <c r="D6" t="n">
-        <v>-222345.4512513198</v>
+        <v>-222345.4512513197</v>
       </c>
       <c r="E6" t="n">
-        <v>-789289.3878890666</v>
+        <v>-789356.5833792925</v>
       </c>
       <c r="F6" t="n">
-        <v>-61911.97389566003</v>
+        <v>-61979.16938588579</v>
       </c>
       <c r="G6" t="n">
-        <v>-61911.97389565998</v>
+        <v>-61979.16938588578</v>
       </c>
       <c r="H6" t="n">
-        <v>-61911.97389565999</v>
+        <v>-61979.16938588578</v>
       </c>
       <c r="I6" t="n">
-        <v>-61911.97389565999</v>
+        <v>-61979.16938588581</v>
       </c>
       <c r="J6" t="n">
-        <v>-218546.5353586561</v>
+        <v>-218613.7308488818</v>
       </c>
       <c r="K6" t="n">
-        <v>-81377.2292141495</v>
+        <v>-81444.42470437552</v>
       </c>
       <c r="L6" t="n">
         <v>-116882.5322223678</v>
@@ -26555,10 +26555,10 @@
         <v>-174834.209422264</v>
       </c>
       <c r="N6" t="n">
-        <v>-90092.59146275866</v>
+        <v>-90092.59146275862</v>
       </c>
       <c r="O6" t="n">
-        <v>-90092.59146275865</v>
+        <v>-90092.59146275862</v>
       </c>
       <c r="P6" t="n">
         <v>-90092.59146275866</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322899</v>
+        <v>312.6374684322893</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405962</v>
+        <v>598.6552776405955</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312.6374684322899</v>
+        <v>312.6374684322893</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479675</v>
+        <v>65.10619578479739</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>598.6552776405962</v>
+        <v>598.6552776405955</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395953</v>
+        <v>75.63199511396022</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405962</v>
+        <v>598.6552776405955</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395953</v>
+        <v>75.63199511396033</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>598.6552776405962</v>
+        <v>598.6552776405955</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395953</v>
+        <v>75.63199511396022</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>309.4325406660916</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631754</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.91951642794432</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
-        <v>88.26197722992399</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>114.2420949217171</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4542208317152</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.9554725121073</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>106.5461107100278</v>
       </c>
       <c r="G4" t="n">
-        <v>78.74361871643261</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2147226037219</v>
       </c>
       <c r="I4" t="n">
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375607</v>
+        <v>53.50046549375616</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.9537855184187</v>
       </c>
       <c r="R4" t="n">
         <v>151.9441304121514</v>
@@ -27591,7 +27591,7 @@
         <v>225.5367433600327</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2882781300877</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>352.0309068139258</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>126.0391981677838</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>85.50989528826827</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>74.40383616488373</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>365.0611950156838</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>73.79021906417989</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>163.9534314950889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1.88527183700694</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859224</v>
       </c>
       <c r="V41" t="n">
         <v>46.97513661859256</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859273</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256834043948903</v>
+        <v>1.256834043948901</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87155165259171</v>
+        <v>12.87155165259168</v>
       </c>
       <c r="I2" t="n">
-        <v>48.45409447934014</v>
+        <v>48.45409447934005</v>
       </c>
       <c r="J2" t="n">
-        <v>106.6722184376083</v>
+        <v>106.6722184376081</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179654</v>
+        <v>159.8740035179651</v>
       </c>
       <c r="L2" t="n">
-        <v>198.3378383904667</v>
+        <v>198.3378383904663</v>
       </c>
       <c r="M2" t="n">
-        <v>220.689060819543</v>
+        <v>220.6890608195426</v>
       </c>
       <c r="N2" t="n">
-        <v>224.2600405469129</v>
+        <v>224.2600405469124</v>
       </c>
       <c r="O2" t="n">
-        <v>211.762397022396</v>
+        <v>211.7623970223955</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624074</v>
+        <v>180.734306562407</v>
       </c>
       <c r="Q2" t="n">
-        <v>135.7239373634872</v>
+        <v>135.723937363487</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320537</v>
+        <v>78.94960151320521</v>
       </c>
       <c r="S2" t="n">
-        <v>28.64010577648567</v>
+        <v>28.64010577648561</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386327</v>
+        <v>5.501791027386316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1005467235159122</v>
+        <v>0.1005467235159121</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373784</v>
+        <v>0.6724654981373771</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168892</v>
+        <v>6.494600995168879</v>
       </c>
       <c r="I3" t="n">
-        <v>23.15286912446676</v>
+        <v>23.15286912446671</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358452</v>
+        <v>63.53324252358439</v>
       </c>
       <c r="K3" t="n">
-        <v>108.5884308987889</v>
+        <v>108.5884308987886</v>
       </c>
       <c r="L3" t="n">
-        <v>146.0105459881181</v>
+        <v>146.0105459881178</v>
       </c>
       <c r="M3" t="n">
-        <v>170.387420295598</v>
+        <v>170.3874202955977</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072298</v>
+        <v>174.8970683072295</v>
       </c>
       <c r="O3" t="n">
-        <v>159.9966485853437</v>
+        <v>159.9966485853434</v>
       </c>
       <c r="P3" t="n">
-        <v>128.4114160434438</v>
+        <v>128.4114160434435</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522046</v>
+        <v>85.83963095522027</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610847</v>
+        <v>41.75184908610839</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689384</v>
+        <v>12.49075168689382</v>
       </c>
       <c r="T3" t="n">
-        <v>2.710507863106362</v>
+        <v>2.710507863106356</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0442411511932486</v>
+        <v>0.04424115119324851</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582277</v>
+        <v>0.5637724840582266</v>
       </c>
       <c r="H4" t="n">
-        <v>5.012449903717701</v>
+        <v>5.012449903717691</v>
       </c>
       <c r="I4" t="n">
-        <v>16.95417615695107</v>
+        <v>16.95417615695104</v>
       </c>
       <c r="J4" t="n">
-        <v>39.8587146229167</v>
+        <v>39.85871462291662</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876498</v>
+        <v>65.50011223876486</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625689</v>
+        <v>83.81759276625672</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832744</v>
+        <v>88.37389947832727</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741105</v>
+        <v>86.27256567411031</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943025</v>
+        <v>79.68667801943009</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464235</v>
+        <v>68.18571934464221</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327578</v>
+        <v>47.20825773327569</v>
       </c>
       <c r="R4" t="n">
-        <v>25.34926096501813</v>
+        <v>25.34926096501807</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814747</v>
+        <v>9.825016835814727</v>
       </c>
       <c r="T4" t="n">
-        <v>2.408846068248791</v>
+        <v>2.408846068248786</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317609</v>
+        <v>0.03075122640317603</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299582</v>
+        <v>94.72292908299561</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441496</v>
+        <v>263.9295650441493</v>
       </c>
       <c r="L2" t="n">
-        <v>380.2326379709299</v>
+        <v>380.2326379709295</v>
       </c>
       <c r="M2" t="n">
-        <v>439.8563610851028</v>
+        <v>439.8563610851023</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623061</v>
+        <v>432.1939013623057</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634546</v>
+        <v>362.4643668634542</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786205</v>
+        <v>271.3000189786201</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.7332381489424</v>
+        <v>125.7332381489421</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.78665119732666</v>
+        <v>62.78665119732653</v>
       </c>
       <c r="K3" t="n">
-        <v>32.39602984471534</v>
+        <v>235.2122289370083</v>
       </c>
       <c r="L3" t="n">
-        <v>378.2965115117031</v>
+        <v>175.4803124194087</v>
       </c>
       <c r="M3" t="n">
-        <v>493.9584501235796</v>
+        <v>493.9584501235793</v>
       </c>
       <c r="N3" t="n">
-        <v>522.89773056745</v>
+        <v>522.8977305674497</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176288</v>
+        <v>411.2627234176285</v>
       </c>
       <c r="P3" t="n">
-        <v>312.8997772690507</v>
+        <v>312.8997772690504</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.935144605048</v>
+        <v>155.9351446050479</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288213</v>
+        <v>43.230620412882</v>
       </c>
       <c r="L4" t="n">
-        <v>111.407618026573</v>
+        <v>111.4076180265729</v>
       </c>
       <c r="M4" t="n">
-        <v>127.957776440168</v>
+        <v>127.9577764401679</v>
       </c>
       <c r="N4" t="n">
-        <v>130.4047380533391</v>
+        <v>130.4047380533389</v>
       </c>
       <c r="O4" t="n">
-        <v>104.2718059334699</v>
+        <v>104.2718059334698</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953584</v>
+        <v>65.4642786095357</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>318.3309425707635</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>404.727924322443</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499135</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>556.5257492814171</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552622</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>588.5891319493451</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>351.8394407150408</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>532.0150438593984</v>
+        <v>691.3305577384939</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>575.2607642879366</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>703.4971668193429</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,10 +37230,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>507.4974797709462</v>
+        <v>507.4974797709448</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>785.2736850426326</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>418.5312714465568</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>377.2134278768874</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>359.5297983552924</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>579.9274611520872</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
